--- a/data/zenodo/conversion/transmission/CHE_convtransmission_elec.xlsx
+++ b/data/zenodo/conversion/transmission/CHE_convtransmission_elec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/transmission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/transmission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F904D1A-5F7E-1845-993D-1B3FA51DC0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53576A76-63BD-5A40-BD8F-118B54F31582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$605</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$606</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="46">
   <si>
     <t>Name:</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -589,11 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L185"/>
+  <dimension ref="A1:L186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -693,16 +696,13 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -714,13 +714,13 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -735,13 +735,13 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G10">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -776,17 +776,17 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
+        <v>0.91</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -798,21 +798,18 @@
         <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
       <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K12" s="2"/>
-      <c r="L12" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -821,29 +818,21 @@
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>1990</v>
-      </c>
-      <c r="G13">
-        <v>50271</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K13" s="2"/>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -860,10 +849,10 @@
         <v>24</v>
       </c>
       <c r="E14">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G14">
-        <v>51336</v>
+        <v>50271</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -892,10 +881,10 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G15">
-        <v>51621</v>
+        <v>51336</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
@@ -924,10 +913,10 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G16">
-        <v>50928</v>
+        <v>51621</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -956,10 +945,10 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G17">
-        <v>50547</v>
+        <v>50928</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -988,10 +977,10 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G18">
-        <v>51567</v>
+        <v>50547</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -1020,10 +1009,10 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G19">
-        <v>52420</v>
+        <v>51567</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -1052,10 +1041,10 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G20">
-        <v>52327</v>
+        <v>52420</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
@@ -1084,10 +1073,10 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G21">
-        <v>53374</v>
+        <v>52327</v>
       </c>
       <c r="H21" t="s">
         <v>29</v>
@@ -1116,10 +1105,10 @@
         <v>24</v>
       </c>
       <c r="E22">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G22">
-        <v>55056</v>
+        <v>53374</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>
@@ -1148,10 +1137,10 @@
         <v>24</v>
       </c>
       <c r="E23">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G23">
-        <v>56304</v>
+        <v>55056</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
@@ -1180,10 +1169,10 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G24">
-        <v>57783</v>
+        <v>56304</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -1212,10 +1201,10 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G25">
-        <v>58085</v>
+        <v>57783</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -1244,10 +1233,10 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G26">
-        <v>59261</v>
+        <v>58085</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -1276,10 +1265,10 @@
         <v>24</v>
       </c>
       <c r="E27">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G27">
-        <v>60387</v>
+        <v>59261</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -1308,10 +1297,10 @@
         <v>24</v>
       </c>
       <c r="E28">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G28">
-        <v>61637</v>
+        <v>60387</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -1340,10 +1329,10 @@
         <v>24</v>
       </c>
       <c r="E29">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G29">
-        <v>62124</v>
+        <v>61637</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
@@ -1372,10 +1361,10 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G30">
-        <v>61750</v>
+        <v>62124</v>
       </c>
       <c r="H30" t="s">
         <v>29</v>
@@ -1404,10 +1393,10 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G31">
-        <v>63147</v>
+        <v>61750</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -1436,10 +1425,10 @@
         <v>24</v>
       </c>
       <c r="E32">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G32">
-        <v>61814</v>
+        <v>63147</v>
       </c>
       <c r="H32" t="s">
         <v>29</v>
@@ -1468,10 +1457,10 @@
         <v>24</v>
       </c>
       <c r="E33">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G33">
-        <v>64278</v>
+        <v>61814</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
@@ -1500,10 +1489,10 @@
         <v>24</v>
       </c>
       <c r="E34">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G34">
-        <v>63002</v>
+        <v>64278</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
@@ -1532,10 +1521,10 @@
         <v>24</v>
       </c>
       <c r="E35">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G35">
-        <v>63408</v>
+        <v>63002</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
@@ -1564,10 +1553,10 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G36">
-        <v>63784</v>
+        <v>63408</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -1596,10 +1585,10 @@
         <v>24</v>
       </c>
       <c r="E37">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G37">
-        <v>61787</v>
+        <v>63784</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
@@ -1628,10 +1617,10 @@
         <v>24</v>
       </c>
       <c r="E38">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G38">
-        <v>62626</v>
+        <v>61787</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
@@ -1660,10 +1649,10 @@
         <v>24</v>
       </c>
       <c r="E39">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G39">
-        <v>62617</v>
+        <v>62626</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -1692,10 +1681,10 @@
         <v>24</v>
       </c>
       <c r="E40">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G40">
-        <v>62877</v>
+        <v>62617</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -1724,10 +1713,10 @@
         <v>24</v>
       </c>
       <c r="E41">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G41">
-        <v>61984</v>
+        <v>62877</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -1756,10 +1745,10 @@
         <v>24</v>
       </c>
       <c r="E42">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G42">
-        <v>61501</v>
+        <v>61984</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
@@ -1782,25 +1771,28 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
       </c>
       <c r="E43">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>61501</v>
       </c>
       <c r="H43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J43" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="L43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1817,7 +1809,7 @@
         <v>24</v>
       </c>
       <c r="E44">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1846,7 +1838,7 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1875,7 +1867,7 @@
         <v>24</v>
       </c>
       <c r="E46">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1904,7 +1896,7 @@
         <v>24</v>
       </c>
       <c r="E47">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1933,7 +1925,7 @@
         <v>24</v>
       </c>
       <c r="E48">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1962,7 +1954,7 @@
         <v>24</v>
       </c>
       <c r="E49">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1991,7 +1983,7 @@
         <v>24</v>
       </c>
       <c r="E50">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2020,7 +2012,7 @@
         <v>24</v>
       </c>
       <c r="E51">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2049,7 +2041,7 @@
         <v>24</v>
       </c>
       <c r="E52">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2078,7 +2070,7 @@
         <v>24</v>
       </c>
       <c r="E53">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2107,7 +2099,7 @@
         <v>24</v>
       </c>
       <c r="E54">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2136,7 +2128,7 @@
         <v>24</v>
       </c>
       <c r="E55">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2165,7 +2157,7 @@
         <v>24</v>
       </c>
       <c r="E56">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2194,7 +2186,7 @@
         <v>24</v>
       </c>
       <c r="E57">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2223,7 +2215,7 @@
         <v>24</v>
       </c>
       <c r="E58">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2252,7 +2244,7 @@
         <v>24</v>
       </c>
       <c r="E59">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2281,7 +2273,7 @@
         <v>24</v>
       </c>
       <c r="E60">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2310,7 +2302,7 @@
         <v>24</v>
       </c>
       <c r="E61">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2339,7 +2331,7 @@
         <v>24</v>
       </c>
       <c r="E62">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2368,7 +2360,7 @@
         <v>24</v>
       </c>
       <c r="E63">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2397,7 +2389,7 @@
         <v>24</v>
       </c>
       <c r="E64">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2426,7 +2418,7 @@
         <v>24</v>
       </c>
       <c r="E65">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2455,7 +2447,7 @@
         <v>24</v>
       </c>
       <c r="E66">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2484,7 +2476,7 @@
         <v>24</v>
       </c>
       <c r="E67">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2513,7 +2505,7 @@
         <v>24</v>
       </c>
       <c r="E68">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2542,7 +2534,7 @@
         <v>24</v>
       </c>
       <c r="E69">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2571,7 +2563,7 @@
         <v>24</v>
       </c>
       <c r="E70">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2600,7 +2592,7 @@
         <v>24</v>
       </c>
       <c r="E71">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2629,30 +2621,59 @@
         <v>24</v>
       </c>
       <c r="E72">
+        <v>2018</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72" t="s">
+        <v>28</v>
+      </c>
+      <c r="L72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73">
         <v>2019</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" t="s">
-        <v>35</v>
-      </c>
-      <c r="J72" t="s">
-        <v>28</v>
-      </c>
-      <c r="L72" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K185" s="2"/>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>35</v>
+      </c>
+      <c r="J73" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K186" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L605" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L606" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K13" r:id="rId1" xr:uid="{F043F192-E5FA-F046-BD61-2DE7DC685D42}"/>
-    <hyperlink ref="K14:K42" r:id="rId2" display="https://www.bfe.admin.ch/bfe/fr/home/approvisionnement/statistiques-et-geodonnees/statistiques-de-lenergie/statistique-globale-de-l-energie.html/" xr:uid="{6FEF95C0-6A4A-4848-ABF7-D80895B93980}"/>
+    <hyperlink ref="K14" r:id="rId1" xr:uid="{F043F192-E5FA-F046-BD61-2DE7DC685D42}"/>
+    <hyperlink ref="K15:K43" r:id="rId2" display="https://www.bfe.admin.ch/bfe/fr/home/approvisionnement/statistiques-et-geodonnees/statistiques-de-lenergie/statistique-globale-de-l-energie.html/" xr:uid="{6FEF95C0-6A4A-4848-ABF7-D80895B93980}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
